--- a/简易停.xlsx
+++ b/简易停.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\简易停后台管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B043AEE-03A5-4559-85D9-77A45AFCD8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D37728-8AC4-4FBF-B91B-2C8AD97FBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="936" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>后台接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,13 +61,6 @@
   <si>
     <t xml:space="preserve">username:String,
 userpwd:String
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">username:String,
-userpwd:String
-userinvcode:Number
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,12 +110,36 @@
     <t>Login 登录接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/manager/generate_invacode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{length：“邀请码长度”}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个邀请码，如：{“invacdoe”:"0xsdad"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">username:String,
+userpwd:String
+userinvcode:Number
+email
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +173,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -196,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,20 +227,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,43 +528,43 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="32.265625" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" customWidth="1"/>
-    <col min="6" max="6" width="42.73046875" customWidth="1"/>
-    <col min="7" max="14" width="20.59765625" customWidth="1"/>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="42.75" customWidth="1"/>
+    <col min="7" max="14" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -547,28 +573,28 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -579,10 +605,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -590,67 +616,80 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -663,5 +702,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/简易停.xlsx
+++ b/简易停.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jyt_amdin\jyt_admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D37728-8AC4-4FBF-B91B-2C8AD97FBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32433AF5-8B4A-407D-B497-17A83FFBD60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34452" yWindow="936" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>后台接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,76 @@
     <t xml:space="preserve">username:String,
 userpwd:String
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jyt/user_layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">token || cooking :String 
+username:String ,
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+code:Number
+message:layout is success ,
+layout_tree :Array&lt;Object&gt;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应码
+success:200-300
+error:400-500
+code:200 -&gt; success
+code:401 -&gt; error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userinvcode &amp;&amp; 邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager/generate_invacode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{length：“邀请码长度”}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个邀请码，如：{“invacdoe”:"0xsdad"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">username:String,
+userpwd:String
+userinvcode:Number
+email
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果&amp;&amp; success &amp;&amp; err</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,65 +143,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/jyt/user_layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">token || cooking :String 
-username:String ,
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-code:Number
-message:layout is success ,
-layout_tree :Array&lt;Object&gt;
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应码
-success:200-300
-error:400-500
-code:200 -&gt; success
-code:401 -&gt; error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userinvcode &amp;&amp; 邀请码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login 登录接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager/generate_invacode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{length：“邀请码长度”}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一个邀请码，如：{“invacdoe”:"0xsdad"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">username:String,
-userpwd:String
-userinvcode:Number
-email
-</t>
+    <t>注册接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果&amp;&amp; success &amp;&amp;pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +173,46 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -158,7 +222,7 @@
       <b/>
       <i/>
       <u/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -167,7 +231,9 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <i/>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -175,13 +241,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +301,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,35 +332,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,180 +669,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="32.25" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="42.75" customWidth="1"/>
-    <col min="7" max="14" width="20.625" customWidth="1"/>
+    <col min="1" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="32.265625" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" customWidth="1"/>
+    <col min="6" max="6" width="42.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+    <col min="8" max="8" width="36.796875" customWidth="1"/>
+    <col min="9" max="14" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简易停.xlsx
+++ b/简易停.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jyt_amdin\jyt_admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32433AF5-8B4A-407D-B497-17A83FFBD60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4EE3DC-24AF-4B34-88E2-CEE5A833C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="936" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>后台接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>/jyt/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,14 +68,6 @@
     <t xml:space="preserve">token || cooking :String 
 username:String ,
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-code:Number
-message:layout is success ,
-layout_tree :Array&lt;Object&gt;
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,7 +83,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userinvcode &amp;&amp; 邀请码</t>
+    <t>Login 登录接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,54 +96,40 @@
   </si>
   <si>
     <t>返回一个邀请码，如：{“invacdoe”:"0xsdad"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{token: String}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">username:String,
 userpwd:String
 userinvcode:Number
-email
+email:String
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果&amp;&amp; success &amp;&amp; err</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {
-code:Number,
-message:login is success
-token || cooking:String
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果&amp;&amp; success &amp;&amp;pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录接口</t>
+    <t>/jyt/forget_passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email: String,
+ verfi_code: String,
+    new_passwd: String,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,27 +155,8 @@
     <font>
       <b/>
       <i/>
-      <sz val="18"/>
-      <color theme="2"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -210,7 +165,6 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -219,68 +173,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,30 +200,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -332,61 +213,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,38 +523,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="32.265625" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" customWidth="1"/>
-    <col min="6" max="6" width="42.73046875" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" customWidth="1"/>
-    <col min="8" max="8" width="36.796875" customWidth="1"/>
-    <col min="9" max="14" width="20.59765625" customWidth="1"/>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="42.75" customWidth="1"/>
+    <col min="7" max="14" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -708,188 +559,159 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>21</v>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简易停.xlsx
+++ b/简易停.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4EE3DC-24AF-4B34-88E2-CEE5A833C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88198F4-259E-4151-9623-7D4623B30862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26070" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>后台接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
     <t>email: String,
  verfi_code: String,
     new_passwd: String,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jyt/send_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email:String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,6 +684,15 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
